--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,74 +476,74 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57634</v>
+        <v>82972</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dr. Pedro Henrique Carvalho</t>
+          <t>Levi Correia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G2" t="n">
-        <v>5452.18</v>
+        <v>10586.89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>89638</v>
+        <v>16274</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vitor Sales</t>
+          <t>Maria Fernanda Pinto</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45090</v>
+        <v>45084</v>
       </c>
       <c r="G3" t="n">
-        <v>2571.12</v>
+        <v>9714.219999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>29036</v>
+        <v>27693</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Otávio Ribeiro</t>
+          <t>Maria Eduarda Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,109 +552,109 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>5189.37</v>
+        <v>5987.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>87693</v>
+        <v>81754</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Maria Eduarda Moura</t>
+          <t>Theo da Conceição</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>9030.85</v>
+        <v>4987.55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58214</v>
+        <v>32193</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Marcela Silveira</t>
+          <t>Srta. Juliana Nascimento</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45102</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>4679.28</v>
+        <v>9590.18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>17021</v>
+        <v>95283</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Enrico Carvalho</t>
+          <t>Isabel Oliveira</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45084</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>4232.37</v>
+        <v>4230.55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>58379</v>
+        <v>77161</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luana Farias</t>
+          <t>Helena Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45104</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>10122.11</v>
+        <v>3134.31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66363</v>
+        <v>81674</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Olivia Gonçalves</t>
+          <t>Srta. Stephany da Cruz</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45094</v>
+        <v>45089</v>
       </c>
       <c r="G9" t="n">
-        <v>8153.8</v>
+        <v>4078.42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>99544</v>
+        <v>91862</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Beatriz Caldeira</t>
+          <t>Diogo Jesus</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45106</v>
+        <v>45087</v>
       </c>
       <c r="G10" t="n">
-        <v>6218.65</v>
+        <v>7656.83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>94347</v>
+        <v>1009</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Gabriel Mendes</t>
+          <t>Alice Ferreira</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>9957.620000000001</v>
+        <v>8676.68</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_22.xlsx
+++ b/data/input/absenteeism_data_22.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>82972</v>
+        <v>74348</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Levi Correia</t>
+          <t>Dr. Bruno da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45098</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>10586.89</v>
+        <v>3688.31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>16274</v>
+        <v>63606</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maria Fernanda Pinto</t>
+          <t>Arthur Nogueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45084</v>
+        <v>45102</v>
       </c>
       <c r="G3" t="n">
-        <v>9714.219999999999</v>
+        <v>9282.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>27693</v>
+        <v>49846</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Maria Eduarda Caldeira</t>
+          <t>Pedro Henrique Almeida</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45102</v>
+        <v>45101</v>
       </c>
       <c r="G4" t="n">
-        <v>5987.38</v>
+        <v>8641.610000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>81754</v>
+        <v>68802</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Theo da Conceição</t>
+          <t>Thales Costela</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45080</v>
+        <v>45106</v>
       </c>
       <c r="G5" t="n">
-        <v>4987.55</v>
+        <v>3683.75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32193</v>
+        <v>69875</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Juliana Nascimento</t>
+          <t>Fernando Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45087</v>
+        <v>45102</v>
       </c>
       <c r="G6" t="n">
-        <v>9590.18</v>
+        <v>7514.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>95283</v>
+        <v>93311</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Isabel Oliveira</t>
+          <t>Dra. Luiza Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45104</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>4230.55</v>
+        <v>8327.940000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>77161</v>
+        <v>30953</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Helena Caldeira</t>
+          <t>João Vitor da Luz</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45105</v>
       </c>
       <c r="G8" t="n">
-        <v>3134.31</v>
+        <v>9411.700000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81674</v>
+        <v>74903</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Srta. Stephany da Cruz</t>
+          <t>Maria Vitória Porto</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G9" t="n">
-        <v>4078.42</v>
+        <v>12075.46</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>91862</v>
+        <v>82440</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diogo Jesus</t>
+          <t>Isabelly Dias</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45087</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>7656.83</v>
+        <v>5277.63</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1009</v>
+        <v>41858</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alice Ferreira</t>
+          <t>Dra. Pietra Monteiro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45084</v>
       </c>
       <c r="G11" t="n">
-        <v>8676.68</v>
+        <v>6671.12</v>
       </c>
     </row>
   </sheetData>
